--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.5111218979018082</v>
+        <v>7.5111219095650021</v>
       </c>
       <c r="C2">
-        <v>6.3143128777124273</v>
+        <v>6.3143128817740477</v>
       </c>
       <c r="D2">
-        <v>4.4293496058905983</v>
+        <v>4.4293496113172122</v>
       </c>
       <c r="E2">
-        <v>3.1581760141130033</v>
+        <v>3.1581760217487238</v>
       </c>
       <c r="F2">
-        <v>4.8877351824029605</v>
+        <v>4.8877351823608164</v>
       </c>
       <c r="G2">
-        <v>7.6434452178677992</v>
+        <v>7.6434452213531925</v>
       </c>
       <c r="H2">
-        <v>3.7764614108353829</v>
+        <v>3.7764614206653127</v>
       </c>
       <c r="I2">
-        <v>4.0596067585366455</v>
+        <v>4.0596067585355122</v>
       </c>
       <c r="J2">
-        <v>6.3658561255747621</v>
+        <v>6.3658561289700408</v>
       </c>
       <c r="K2">
-        <v>5.9449739601193752</v>
+        <v>5.9449739628412779</v>
       </c>
       <c r="L2">
-        <v>8.1297845645813513</v>
+        <v>8.129784568372509</v>
       </c>
       <c r="M2">
-        <v>6.9269597970244527</v>
+        <v>6.9269598029485042</v>
       </c>
       <c r="N2">
-        <v>5.1329424326022801</v>
+        <v>5.1329424353945408</v>
       </c>
       <c r="O2">
-        <v>2.653902627565448</v>
+        <v>2.6539026312198626</v>
       </c>
       <c r="P2">
-        <v>4.5098078647676569</v>
+        <v>4.5098078702744484</v>
       </c>
       <c r="Q2">
-        <v>8.2726604590322381</v>
+        <v>8.2726604656326508</v>
       </c>
       <c r="R2">
-        <v>5.3319795046593796</v>
+        <v>5.3319794989134781</v>
       </c>
       <c r="S2">
-        <v>3.0215875056919339</v>
+        <v>3.0215875006323731</v>
       </c>
       <c r="T2">
-        <v>2.7130006017900401</v>
+        <v>2.7130006004660738</v>
       </c>
       <c r="U2">
-        <v>6.0880875769996754</v>
+        <v>6.0880875813552331</v>
       </c>
       <c r="V2">
-        <v>3.9207338713848712</v>
+        <v>3.920733872222891</v>
       </c>
       <c r="W2">
-        <v>5.9056530780700882</v>
+        <v>5.9056530848893072</v>
       </c>
       <c r="X2">
-        <v>6.2918985312838185</v>
+        <v>6.2918985361365793</v>
       </c>
       <c r="Y2">
-        <v>1.6100704987696002</v>
+        <v>1.6100705053884088</v>
       </c>
       <c r="Z2">
-        <v>3.941250876398561</v>
+        <v>3.9412508812593652</v>
       </c>
       <c r="AA2">
-        <v>4.4761669722777979</v>
+        <v>4.4761669822209544</v>
       </c>
       <c r="AB2">
-        <v>4.6321641942848588</v>
+        <v>4.6321642115233912</v>
       </c>
       <c r="AC2">
-        <v>6.3866676779716327</v>
+        <v>6.386667677969271</v>
       </c>
       <c r="AD2">
-        <v>1.8624747257008296</v>
+        <v>1.8624747450097967</v>
       </c>
       <c r="AE2">
-        <v>5.2191728032730342</v>
+        <v>5.2191728085769258</v>
       </c>
       <c r="AF2">
-        <v>4.7251514048123378</v>
+        <v>4.7251514119760385</v>
       </c>
       <c r="AG2">
-        <v>3.5244438655594914</v>
+        <v>3.5244438676751679</v>
       </c>
       <c r="AH2">
-        <v>2.839800881036207</v>
+        <v>2.8398008868552567</v>
       </c>
       <c r="AI2">
-        <v>5.4742875943296117</v>
+        <v>5.4742876044571522</v>
       </c>
       <c r="AJ2">
-        <v>3.947339864408451</v>
+        <v>3.9473398695774473</v>
       </c>
       <c r="AK2">
-        <v>5.0381621796765756</v>
+        <v>5.038162185513217</v>
       </c>
       <c r="AL2">
-        <v>6.8071947827959747</v>
+        <v>6.807194786165943</v>
       </c>
       <c r="AM2">
-        <v>3.2759425721786655</v>
+        <v>3.275942581734089</v>
       </c>
       <c r="AN2">
-        <v>3.8027593277940608</v>
+        <v>3.8027593331310006</v>
       </c>
       <c r="AO2">
-        <v>2.5822816180906214</v>
+        <v>2.5822816276697584</v>
       </c>
       <c r="AP2">
-        <v>3.2337607747866168</v>
+        <v>3.2337607807256203</v>
       </c>
       <c r="AQ2">
-        <v>5.213808999549582</v>
+        <v>5.2138090012494231</v>
       </c>
       <c r="AR2">
-        <v>2.6454812370608045</v>
+        <v>2.6454812387371787</v>
       </c>
       <c r="AS2">
-        <v>2.3097234542002054</v>
+        <v>2.3097234588810345</v>
       </c>
       <c r="AT2">
-        <v>4.212381670046379</v>
+        <v>4.2123816773957392</v>
       </c>
       <c r="AU2">
-        <v>2.086167542990256</v>
+        <v>2.0861675452112531</v>
       </c>
       <c r="AV2">
-        <v>3.2364771581177973</v>
+        <v>3.2364771779046966</v>
       </c>
       <c r="AW2">
-        <v>4.90136226621666</v>
+        <v>4.901362272573448</v>
       </c>
       <c r="AX2">
-        <v>2.9587550621398231</v>
+        <v>2.9587550690289963</v>
       </c>
       <c r="AY2">
-        <v>1.4143664024969591</v>
+        <v>1.414366407095571</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.2654527543899174</v>
+        <v>7.2654527851581374</v>
       </c>
       <c r="C3">
-        <v>5.914057805164747</v>
+        <v>5.9140578121044118</v>
       </c>
       <c r="D3">
-        <v>3.4988709886664782</v>
+        <v>3.4988710099336267</v>
       </c>
       <c r="E3">
-        <v>4.118032310225809</v>
+        <v>4.1180323139441626</v>
       </c>
       <c r="F3">
-        <v>4.6379594176734162</v>
+        <v>4.6379594242451274</v>
       </c>
       <c r="G3">
-        <v>4.186282186477583</v>
+        <v>4.1862821934255869</v>
       </c>
       <c r="H3">
-        <v>7.3835184461229222</v>
+        <v>7.383518443863343</v>
       </c>
       <c r="I3">
-        <v>5.2927376810290196</v>
+        <v>5.2927376836986211</v>
       </c>
       <c r="J3">
-        <v>5.2752670510302284</v>
+        <v>5.2752670614151658</v>
       </c>
       <c r="K3">
-        <v>-0.47870738140626795</v>
+        <v>-0.47870738019515863</v>
       </c>
       <c r="L3">
-        <v>4.6948625041834253</v>
+        <v>4.6948625096625705</v>
       </c>
       <c r="M3">
-        <v>5.9106139824425998</v>
+        <v>5.9106281324452059</v>
       </c>
       <c r="N3">
-        <v>4.8271078692396561</v>
+        <v>4.8271078699636059</v>
       </c>
       <c r="O3">
-        <v>6.994791745084747</v>
+        <v>6.9947917456007396</v>
       </c>
       <c r="P3">
-        <v>3.8388360615167332</v>
+        <v>3.8388360700021078</v>
       </c>
       <c r="Q3">
-        <v>4.0989348030141013</v>
+        <v>4.098934808291661</v>
       </c>
       <c r="R3">
-        <v>6.0599002303072727</v>
+        <v>6.0599002366774419</v>
       </c>
       <c r="S3">
-        <v>2.761064874862428</v>
+        <v>2.7610648810582719</v>
       </c>
       <c r="T3">
-        <v>3.2783871227803267</v>
+        <v>3.2783871277173757</v>
       </c>
       <c r="U3">
-        <v>4.0235460123474729</v>
+        <v>4.0235460194282622</v>
       </c>
       <c r="V3">
-        <v>3.0931221504186679</v>
+        <v>3.0931221490177001</v>
       </c>
       <c r="W3">
-        <v>4.8195440119158794</v>
+        <v>4.819544021326406</v>
       </c>
       <c r="X3">
-        <v>7.0792128244136237</v>
+        <v>7.0792128278348967</v>
       </c>
       <c r="Y3">
-        <v>0.9822185928136804</v>
+        <v>0.98221860359763224</v>
       </c>
       <c r="Z3">
-        <v>2.2020684097326648</v>
+        <v>2.2020684151150856</v>
       </c>
       <c r="AA3">
-        <v>4.5118847316568909</v>
+        <v>4.5118847397695454</v>
       </c>
       <c r="AB3">
-        <v>3.8318346371532899</v>
+        <v>3.8318346451842649</v>
       </c>
       <c r="AC3">
-        <v>4.3285091931621089</v>
+        <v>4.3285092021196281</v>
       </c>
       <c r="AD3">
-        <v>3.4566324743401502</v>
+        <v>3.4566324781824189</v>
       </c>
       <c r="AE3">
-        <v>3.0812656020478433</v>
+        <v>3.081265608075372</v>
       </c>
       <c r="AF3">
-        <v>5.1430006957176504</v>
+        <v>5.1430007051394115</v>
       </c>
       <c r="AG3">
-        <v>4.7054555094111858</v>
+        <v>4.7054555150177171</v>
       </c>
       <c r="AH3">
-        <v>4.4338288300334341</v>
+        <v>4.4338288362789005</v>
       </c>
       <c r="AI3">
-        <v>0.52536027136950769</v>
+        <v>0.52536027156238652</v>
       </c>
       <c r="AJ3">
-        <v>3.3271731937932931</v>
+        <v>3.3271732032835883</v>
       </c>
       <c r="AK3">
-        <v>4.9856264045708132</v>
+        <v>4.9856264126022012</v>
       </c>
       <c r="AL3">
-        <v>3.9162731026416395</v>
+        <v>3.9162731084711631</v>
       </c>
       <c r="AM3">
-        <v>3.1306016000076009</v>
+        <v>3.1306016161220183</v>
       </c>
       <c r="AN3">
-        <v>7.2562617604074227</v>
+        <v>7.256261765062705</v>
       </c>
       <c r="AO3">
-        <v>3.3316649130031184</v>
+        <v>3.3316649278331147</v>
       </c>
       <c r="AP3">
-        <v>4.5329876450561901</v>
+        <v>4.5329876527702426</v>
       </c>
       <c r="AQ3">
-        <v>3.3146382031110413</v>
+        <v>3.3146382068557836</v>
       </c>
       <c r="AR3">
-        <v>2.575996442036701</v>
+        <v>2.5759964475525612</v>
       </c>
       <c r="AS3">
-        <v>3.9017068954672363</v>
+        <v>3.9017068984678258</v>
       </c>
       <c r="AT3">
-        <v>2.2881716973511468</v>
+        <v>2.2881717044006633</v>
       </c>
       <c r="AU3">
-        <v>3.3565869876293251</v>
+        <v>3.3565869901660648</v>
       </c>
       <c r="AV3">
-        <v>4.0394711970522117</v>
+        <v>4.0394712086920768</v>
       </c>
       <c r="AW3">
-        <v>5.4184583864641427</v>
+        <v>5.4184583944263967</v>
       </c>
       <c r="AX3">
-        <v>5.2640982369343838</v>
+        <v>5.2640982408920598</v>
       </c>
       <c r="AY3">
-        <v>0.83480546708682679</v>
+        <v>0.8348054738693087</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>7.5111219095650021</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6.3143128817740477</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.4293496113172122</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.1581760217487238</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.8877351823608164</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.6434452213531925</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.7764614206653127</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.0596067585355122</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.3658561289700408</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.9449739628412779</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.129784568372509</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>6.9269598029485042</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>5.1329424353945408</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.6539026312198626</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.5098078702744484</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>8.2726604656326508</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.3319794989134781</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.0215875006323731</v>
+        <v>4.5707399541484683</v>
       </c>
       <c r="T2">
         <v>2.7130006004660738</v>
@@ -588,55 +477,55 @@
         <v>3.9412508812593652</v>
       </c>
       <c r="AA2">
-        <v>4.4761669822209544</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.6321642115233912</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>6.386667677969271</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.8624747450097967</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>5.2191728085769258</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.7251514119760385</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>3.5244438676751679</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.8398008868552567</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>5.4742876044571522</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3.9473398695774473</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>5.038162185513217</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>6.807194786165943</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>3.275942581734089</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.8027593331310006</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.5822816276697584</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.2337607807256203</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>5.2138090012494231</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>2.6454812387371787</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>7.2654527851581374</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.9140578121044118</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.4988710099336267</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.1180323139441626</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.6379594242451274</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.1862821934255869</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7.383518443863343</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.2927376836986211</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.2752670614151658</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-0.47870738019515863</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4.6948625096625705</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>5.9106281324452059</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.8271078699636059</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6.9947917456007396</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.8388360700021078</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.098934808291661</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.0599002366774419</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>2.7610648810582719</v>
@@ -743,55 +629,55 @@
         <v>2.2020684151150856</v>
       </c>
       <c r="AA3">
-        <v>4.5118847397695454</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.8318346451842649</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>4.3285092021196281</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>3.4566324781824189</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.081265608075372</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.1430007051394115</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>4.7054555150177171</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.4338288362789005</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.52536027156238652</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.3271732032835883</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.9856264126022012</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>3.9162731084711631</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.1306016161220183</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>7.256261765062705</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.3316649278331147</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.5329876527702426</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.3146382068557836</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>2.5759964475525612</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>7.5111218979018082</v>
-      </c>
       <c r="C2">
-        <v>6.8400352359282754</v>
-      </c>
-      <c r="D2">
-        <v>4.4293496058905983</v>
-      </c>
-      <c r="E2">
-        <v>3.1581760141130033</v>
+        <v>5.3319794989134781</v>
       </c>
       <c r="F2">
         <v>4.8877351824029605</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.2654527543899174</v>
+        <v>5.6375100864256718</v>
       </c>
       <c r="C3">
-        <v>5.914057805164747</v>
+        <v>6.0599002366774419</v>
       </c>
       <c r="D3">
-        <v>3.4988709886664782</v>
+        <v>7.1032736555109457</v>
       </c>
       <c r="E3">
-        <v>4.118032310225809</v>
+        <v>3.0162978350576486</v>
       </c>
       <c r="F3">
         <v>4.6379594176734162</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.5111218979018082</v>
-      </c>
-      <c r="C2">
-        <v>6.8400352359282754</v>
+        <v>5.9186518994940718</v>
       </c>
       <c r="D2">
-        <v>4.4293496058905983</v>
-      </c>
-      <c r="E2">
-        <v>3.1581760141130033</v>
+        <v>3.6531975859042443</v>
       </c>
       <c r="F2">
         <v>4.8877351824029605</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.2654527543899174</v>
+        <v>4.8271078699636059</v>
       </c>
       <c r="C3">
-        <v>5.914057805164747</v>
+        <v>5.6375100864256718</v>
       </c>
       <c r="D3">
-        <v>3.4988709886664782</v>
+        <v>3.1306016161220183</v>
       </c>
       <c r="E3">
-        <v>2.927488360323645</v>
+        <v>7.1032736555109457</v>
       </c>
       <c r="F3">
         <v>4.6379594176734162</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>7.7593906807739517</v>
+      </c>
+      <c r="C2">
+        <v>6.8400352517706429</v>
+      </c>
+      <c r="D2">
+        <v>6.4990238934408504</v>
+      </c>
+      <c r="E2">
+        <v>5.6516897465505949</v>
+      </c>
+      <c r="F2">
+        <v>4.8877351823608164</v>
+      </c>
+      <c r="G2">
+        <v>6.6893043063858491</v>
+      </c>
+      <c r="H2">
+        <v>4.0152366983433261</v>
+      </c>
+      <c r="I2">
+        <v>4.2665269110975004</v>
+      </c>
+      <c r="J2">
+        <v>6.5252002488294503</v>
+      </c>
+      <c r="K2">
+        <v>7.1599071020089351</v>
+      </c>
+      <c r="L2">
+        <v>9.1645755349387201</v>
+      </c>
+      <c r="M2">
+        <v>5.5325085632100173</v>
+      </c>
+      <c r="N2">
         <v>5.9186518994940718</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>4.1888249080018953</v>
+      </c>
+      <c r="Q2">
+        <v>8.2726604656326508</v>
+      </c>
+      <c r="R2">
+        <v>5.3319794989134781</v>
+      </c>
+      <c r="T2">
+        <v>3.2720615943847746</v>
+      </c>
+      <c r="U2">
+        <v>6.3444251803868603</v>
+      </c>
+      <c r="V2">
+        <v>4.3395310628294599</v>
+      </c>
+      <c r="W2">
+        <v>7.3914391098947307</v>
+      </c>
+      <c r="X2">
+        <v>7.1909954941984138</v>
+      </c>
+      <c r="Y2">
+        <v>1.7699869747553714</v>
+      </c>
+      <c r="Z2">
+        <v>3.9412508812593652</v>
+      </c>
+      <c r="AA2">
+        <v>4.6301587079794384</v>
+      </c>
+      <c r="AB2">
+        <v>4.6321642115233912</v>
+      </c>
+      <c r="AC2">
+        <v>8.3432810571187517</v>
+      </c>
+      <c r="AD2">
+        <v>4.0237093383268752</v>
+      </c>
+      <c r="AE2">
+        <v>5.2191728085769258</v>
+      </c>
+      <c r="AF2">
+        <v>4.7251514119760385</v>
+      </c>
+      <c r="AG2">
+        <v>3.8059955635656118</v>
+      </c>
+      <c r="AH2">
+        <v>3.4895454448856138</v>
+      </c>
+      <c r="AI2">
+        <v>5.5822544764783961</v>
+      </c>
+      <c r="AJ2">
+        <v>4.8783337662358859</v>
+      </c>
+      <c r="AK2">
+        <v>6.2474722856703471</v>
+      </c>
+      <c r="AL2">
+        <v>6.807194786165943</v>
+      </c>
+      <c r="AM2">
         <v>3.6531975859042443</v>
       </c>
-      <c r="F2">
-        <v>4.8877351824029605</v>
-      </c>
-      <c r="G2">
-        <v>6.6893042993138989</v>
-      </c>
-      <c r="H2">
-        <v>3.7764614108353829</v>
-      </c>
-      <c r="I2">
-        <v>3.2718884061127786</v>
-      </c>
-      <c r="J2">
-        <v>6.3658561255747621</v>
-      </c>
-      <c r="K2">
-        <v>5.9449739601193752</v>
-      </c>
-      <c r="L2">
-        <v>7.9283417280087045</v>
-      </c>
-      <c r="M2">
-        <v>5.5325085615307055</v>
-      </c>
-      <c r="N2">
-        <v>5.2923241008269164</v>
-      </c>
-      <c r="P2">
-        <v>4.188824899235116</v>
-      </c>
-      <c r="Q2">
-        <v>8.2726604590322381</v>
-      </c>
-      <c r="R2">
-        <v>5.3319795046593796</v>
-      </c>
-      <c r="T2">
-        <v>3.2720615958402832</v>
-      </c>
-      <c r="U2">
-        <v>6.0880875769996754</v>
-      </c>
-      <c r="V2">
-        <v>3.3273325381626986</v>
-      </c>
-      <c r="W2">
-        <v>5.9112241886630565</v>
-      </c>
-      <c r="X2">
-        <v>6.2918985312838185</v>
-      </c>
-      <c r="Y2">
-        <v>1.6100704987696002</v>
-      </c>
-      <c r="Z2">
-        <v>3.941250876398561</v>
-      </c>
-      <c r="AA2">
-        <v>4.4761669722777979</v>
-      </c>
-      <c r="AB2">
-        <v>4.6321641942848588</v>
-      </c>
-      <c r="AC2">
-        <v>6.3866676779716327</v>
-      </c>
-      <c r="AD2">
-        <v>1.8624747257008296</v>
-      </c>
-      <c r="AE2">
-        <v>5.2191728032730342</v>
-      </c>
-      <c r="AF2">
-        <v>4.7251514048123378</v>
-      </c>
-      <c r="AG2">
-        <v>3.5244438655594914</v>
-      </c>
-      <c r="AH2">
-        <v>2.839800881036207</v>
-      </c>
-      <c r="AI2">
-        <v>5.4742875943296117</v>
-      </c>
-      <c r="AJ2">
-        <v>3.947339864408451</v>
-      </c>
-      <c r="AK2">
-        <v>5.0381621796765756</v>
-      </c>
-      <c r="AL2">
-        <v>6.8071947827959747</v>
-      </c>
-      <c r="AM2">
-        <v>3.2759425721786655</v>
-      </c>
       <c r="AO2">
-        <v>2.5822816180906214</v>
+        <v>2.5822816276697584</v>
       </c>
       <c r="AP2">
-        <v>2.8074199112364076</v>
+        <v>2.8074199190496061</v>
       </c>
       <c r="AR2">
-        <v>2.6454812370608045</v>
+        <v>3.1889417115946852</v>
       </c>
       <c r="AS2">
-        <v>2.3097234542002054</v>
+        <v>2.3097234588810345</v>
       </c>
       <c r="AT2">
-        <v>4.212381670046379</v>
+        <v>4.3734817975637448</v>
       </c>
       <c r="AU2">
-        <v>3.1730512363879591</v>
+        <v>4.6039057759066973</v>
       </c>
       <c r="AV2">
-        <v>3.2363347145287094</v>
+        <v>3.9011533885492491</v>
       </c>
       <c r="AW2">
-        <v>4.90136226621666</v>
+        <v>5.7201230303620818</v>
       </c>
       <c r="AX2">
-        <v>2.9587550621398231</v>
+        <v>3.0721939356089973</v>
       </c>
       <c r="AY2">
-        <v>1.4143664024969591</v>
+        <v>1.414366407095571</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>7.2654527851581374</v>
+      </c>
+      <c r="C3">
+        <v>7.2472378636243322</v>
+      </c>
+      <c r="D3">
+        <v>3.4988710099336267</v>
+      </c>
+      <c r="E3">
+        <v>2.9274883685288069</v>
+      </c>
+      <c r="F3">
+        <v>5.4269716642128731</v>
+      </c>
+      <c r="G3">
+        <v>4.7500541057404062</v>
+      </c>
+      <c r="H3">
+        <v>7.383518443863343</v>
+      </c>
+      <c r="I3">
+        <v>5.2927376836986211</v>
+      </c>
+      <c r="J3">
+        <v>5.2752670614151658</v>
+      </c>
+      <c r="K3">
+        <v>0.21812082793859081</v>
+      </c>
+      <c r="L3">
+        <v>4.6948625096625705</v>
+      </c>
+      <c r="M3">
+        <v>7.7230721022746209</v>
+      </c>
+      <c r="N3">
         <v>4.8271078699636059</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>5.6375100864256718</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>4.1150738423737394</v>
+      </c>
+      <c r="Q3">
+        <v>4.3167893724555064</v>
+      </c>
+      <c r="R3">
+        <v>6.6892501652781666</v>
+      </c>
+      <c r="S3">
+        <v>2.7610648810582719</v>
+      </c>
+      <c r="T3">
+        <v>3.5260067831343598</v>
+      </c>
+      <c r="U3">
+        <v>4.0235460194282622</v>
+      </c>
+      <c r="V3">
+        <v>2.7253113670677909</v>
+      </c>
+      <c r="W3">
+        <v>4.8223321262976979</v>
+      </c>
+      <c r="X3">
+        <v>7.0792128278348967</v>
+      </c>
+      <c r="Y3">
+        <v>0.98221860359763224</v>
+      </c>
+      <c r="Z3">
+        <v>2.2386419121819929</v>
+      </c>
+      <c r="AA3">
+        <v>4.5118847397695454</v>
+      </c>
+      <c r="AB3">
+        <v>4.8562960199421354</v>
+      </c>
+      <c r="AC3">
+        <v>4.3285092021196281</v>
+      </c>
+      <c r="AD3">
+        <v>3.4566324781824189</v>
+      </c>
+      <c r="AE3">
+        <v>3.7762497255409326</v>
+      </c>
+      <c r="AF3">
+        <v>5.6881946752182904</v>
+      </c>
+      <c r="AG3">
+        <v>4.7054555150177171</v>
+      </c>
+      <c r="AH3">
+        <v>4.4338288362789005</v>
+      </c>
+      <c r="AI3">
+        <v>5.4731044440436438</v>
+      </c>
+      <c r="AJ3">
+        <v>3.3271732032835883</v>
+      </c>
+      <c r="AK3">
+        <v>4.9856264126022012</v>
+      </c>
+      <c r="AL3">
+        <v>4.5702986669431134</v>
+      </c>
+      <c r="AM3">
         <v>3.1306016161220183</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>7.1032736555109457</v>
       </c>
-      <c r="F3">
-        <v>4.6379594176734162</v>
-      </c>
-      <c r="G3">
-        <v>4.186282186477583</v>
-      </c>
-      <c r="H3">
-        <v>7.3835184461229222</v>
-      </c>
-      <c r="I3">
-        <v>5.2927376810290196</v>
-      </c>
-      <c r="J3">
-        <v>5.2752670510302284</v>
-      </c>
-      <c r="K3">
-        <v>0.21812082741935096</v>
-      </c>
-      <c r="L3">
-        <v>4.6948625041834253</v>
-      </c>
-      <c r="M3">
-        <v>6.855192162366655</v>
-      </c>
-      <c r="N3">
-        <v>4.8271078692396561</v>
-      </c>
-      <c r="O3">
-        <v>5.6375100859934797</v>
-      </c>
-      <c r="P3">
-        <v>3.8388360615167332</v>
-      </c>
-      <c r="Q3">
-        <v>4.0989348030141013</v>
-      </c>
-      <c r="R3">
-        <v>6.0599002303072727</v>
-      </c>
-      <c r="S3">
-        <v>2.761064874862428</v>
-      </c>
-      <c r="T3">
-        <v>3.2783871227803267</v>
-      </c>
-      <c r="U3">
-        <v>4.0235460123474729</v>
-      </c>
-      <c r="V3">
-        <v>2.7253113951261043</v>
-      </c>
-      <c r="W3">
-        <v>4.822332125325727</v>
-      </c>
-      <c r="X3">
-        <v>7.0792128244136237</v>
-      </c>
-      <c r="Y3">
-        <v>0.9822185928136804</v>
-      </c>
-      <c r="Z3">
-        <v>2.2020684097326648</v>
-      </c>
-      <c r="AA3">
-        <v>4.5118847316568909</v>
-      </c>
-      <c r="AB3">
-        <v>3.8318346371532899</v>
-      </c>
-      <c r="AC3">
-        <v>4.3285091931621089</v>
-      </c>
-      <c r="AD3">
-        <v>3.4566324743401502</v>
-      </c>
-      <c r="AE3">
-        <v>3.0812656020478433</v>
-      </c>
-      <c r="AF3">
-        <v>5.1430006957176504</v>
-      </c>
-      <c r="AG3">
-        <v>4.7054555094111858</v>
-      </c>
-      <c r="AH3">
-        <v>4.4338288300334341</v>
-      </c>
-      <c r="AI3">
-        <v>5.4731044309016488</v>
-      </c>
-      <c r="AJ3">
-        <v>3.3271731937932931</v>
-      </c>
-      <c r="AK3">
-        <v>4.9856264045708132</v>
-      </c>
-      <c r="AL3">
-        <v>3.9162731026416395</v>
-      </c>
-      <c r="AM3">
-        <v>3.1306016000076009</v>
-      </c>
-      <c r="AN3">
-        <v>7.1032736502818388</v>
-      </c>
       <c r="AO3">
-        <v>3.3316649130031184</v>
+        <v>3.4810542813723808</v>
       </c>
       <c r="AP3">
-        <v>4.5329876450561901</v>
+        <v>4.7319514862658076</v>
       </c>
       <c r="AQ3">
-        <v>3.01629783312814</v>
+        <v>4.0263754227963036</v>
       </c>
       <c r="AR3">
-        <v>2.575996442036701</v>
+        <v>2.5759964475525612</v>
       </c>
       <c r="AS3">
-        <v>3.9017068954672363</v>
+        <v>4.1293548986368087</v>
       </c>
       <c r="AT3">
-        <v>2.2881716973511468</v>
+        <v>2.2881717044006633</v>
       </c>
       <c r="AU3">
-        <v>3.2449757823330412</v>
+        <v>3.2449757848300029</v>
       </c>
       <c r="AV3">
-        <v>4.0433734157190235</v>
+        <v>4.043373426770339</v>
       </c>
       <c r="AW3">
-        <v>5.4184583864641427</v>
+        <v>5.4184583944263967</v>
       </c>
       <c r="AX3">
-        <v>5.2640982369343838</v>
+        <v>5.2640982408920598</v>
       </c>
       <c r="AY3">
-        <v>0.83480546708682679</v>
+        <v>0.86061676533772824</v>
       </c>
     </row>
   </sheetData>
